--- a/team_specific_matrix/Florida A&M_B.xlsx
+++ b/team_specific_matrix/Florida A&M_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2133891213389121</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C2">
-        <v>0.5481171548117155</v>
+        <v>0.5032679738562091</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008368200836820083</v>
+        <v>0.01633986928104575</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1338912133891213</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09623430962343096</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01492537313432836</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="C3">
-        <v>0.007462686567164179</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007462686567164179</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7014925373134329</v>
+        <v>0.7197452229299363</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2686567164179104</v>
+        <v>0.2484076433121019</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02702702702702703</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7027027027027027</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2702702702702703</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08029197080291971</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0145985401459854</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0583941605839416</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2700729927007299</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0145985401459854</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1751824817518248</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="R6">
-        <v>0.06569343065693431</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="S6">
-        <v>0.3211678832116788</v>
+        <v>0.3048780487804878</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1348314606741573</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0898876404494382</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1573033707865168</v>
+        <v>0.1875</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.101123595505618</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="R7">
-        <v>0.05617977528089887</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0.4606741573033708</v>
+        <v>0.4464285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1266233766233766</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02597402597402598</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="E8">
-        <v>0.006493506493506494</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="F8">
-        <v>0.0487012987012987</v>
+        <v>0.04497354497354497</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1461038961038961</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02922077922077922</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1493506493506493</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="R8">
-        <v>0.06493506493506493</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S8">
-        <v>0.4025974025974026</v>
+        <v>0.3941798941798942</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06779661016949153</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694915254237288</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02542372881355932</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1694915254237288</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2542372881355932</v>
+        <v>0.2595419847328244</v>
       </c>
       <c r="R9">
-        <v>0.09322033898305085</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="S9">
-        <v>0.3728813559322034</v>
+        <v>0.3587786259541985</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1320973348783314</v>
+        <v>0.1331496786042241</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02665121668597914</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="E10">
-        <v>0.003476245654692932</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="F10">
-        <v>0.06257242178447277</v>
+        <v>0.05968778696051423</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0996523754345307</v>
+        <v>0.1092745638200184</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0220162224797219</v>
+        <v>0.01928374655647383</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2213209733487833</v>
+        <v>0.224058769513315</v>
       </c>
       <c r="R10">
-        <v>0.0984936268829664</v>
+        <v>0.1019283746556474</v>
       </c>
       <c r="S10">
-        <v>0.3337195828505214</v>
+        <v>0.325068870523416</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1515151515151515</v>
+        <v>0.15625</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09696969696969697</v>
+        <v>0.09375</v>
       </c>
       <c r="K11">
-        <v>0.2303030303030303</v>
+        <v>0.2135416666666667</v>
       </c>
       <c r="L11">
-        <v>0.503030303030303</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01818181818181818</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6395348837209303</v>
+        <v>0.6796116504854369</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2558139534883721</v>
+        <v>0.2330097087378641</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02325581395348837</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08139534883720931</v>
+        <v>0.06796116504854369</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01428571428571429</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1214285714285714</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="I15">
-        <v>0.04285714285714286</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="J15">
-        <v>0.4214285714285714</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="K15">
-        <v>0.06428571428571428</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02142857142857143</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02142857142857143</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2928571428571429</v>
+        <v>0.2559523809523809</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0273972602739726</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1712328767123288</v>
+        <v>0.175531914893617</v>
       </c>
       <c r="I16">
-        <v>0.0547945205479452</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="J16">
-        <v>0.4246575342465753</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K16">
-        <v>0.06164383561643835</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02054794520547945</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="N16">
-        <v>0.00684931506849315</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="O16">
-        <v>0.0958904109589041</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.136986301369863</v>
+        <v>0.1542553191489362</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01677852348993289</v>
+        <v>0.01336898395721925</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2114093959731544</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="I17">
-        <v>0.1006711409395973</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J17">
-        <v>0.412751677852349</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="K17">
-        <v>0.07718120805369127</v>
+        <v>0.06684491978609626</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01342281879194631</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="N17">
-        <v>0.003355704697986577</v>
+        <v>0.00267379679144385</v>
       </c>
       <c r="O17">
-        <v>0.06375838926174497</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1006711409395973</v>
+        <v>0.09358288770053476</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03076923076923077</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1538461538461539</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="I18">
-        <v>0.09230769230769231</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.4538461538461538</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="K18">
-        <v>0.06923076923076923</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01538461538461539</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05384615384615385</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1307692307692308</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0201765447667087</v>
+        <v>0.01900739176346357</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2383354350567465</v>
+        <v>0.2397043294614572</v>
       </c>
       <c r="I19">
-        <v>0.07944514501891552</v>
+        <v>0.07180570221752904</v>
       </c>
       <c r="J19">
-        <v>0.3984867591424969</v>
+        <v>0.4002111932418163</v>
       </c>
       <c r="K19">
-        <v>0.09079445145018916</v>
+        <v>0.08764519535374868</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01387137452711223</v>
+        <v>0.01372756071805702</v>
       </c>
       <c r="N19">
-        <v>0.002522068095838588</v>
+        <v>0.002111932418162619</v>
       </c>
       <c r="O19">
-        <v>0.06431273644388398</v>
+        <v>0.06546990496304118</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09205548549810845</v>
+        <v>0.1003167898627244</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Florida A&M_B.xlsx
+++ b/team_specific_matrix/Florida A&M_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2352941176470588</v>
+        <v>0.2339181286549707</v>
       </c>
       <c r="C2">
-        <v>0.5032679738562091</v>
+        <v>0.5058479532163743</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01633986928104575</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1568627450980392</v>
+        <v>0.1549707602339181</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08823529411764706</v>
+        <v>0.08771929824561403</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01273885350318471</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C3">
-        <v>0.006369426751592357</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01273885350318471</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7197452229299363</v>
+        <v>0.7215909090909091</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2484076433121019</v>
+        <v>0.2443181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2291666666666667</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06707317073170732</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01829268292682927</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07926829268292683</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2682926829268293</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01219512195121951</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1890243902439024</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R6">
-        <v>0.06097560975609756</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S6">
-        <v>0.3048780487804878</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1160714285714286</v>
+        <v>0.1007194244604317</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08035714285714286</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1875</v>
+        <v>0.1726618705035971</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1071428571428571</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="R7">
-        <v>0.0625</v>
+        <v>0.06474820143884892</v>
       </c>
       <c r="S7">
-        <v>0.4464285714285715</v>
+        <v>0.4532374100719425</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1349206349206349</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03174603174603174</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="E8">
-        <v>0.005291005291005291</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="F8">
-        <v>0.04497354497354497</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1428571428571428</v>
+        <v>0.1378504672897196</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02380952380952381</v>
+        <v>0.02570093457943925</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1481481481481481</v>
+        <v>0.161214953271028</v>
       </c>
       <c r="R8">
-        <v>0.07407407407407407</v>
+        <v>0.06775700934579439</v>
       </c>
       <c r="S8">
-        <v>0.3941798941798942</v>
+        <v>0.3925233644859813</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06870229007633588</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03053435114503817</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02290076335877863</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1603053435114504</v>
+        <v>0.1712328767123288</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2595419847328244</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="R9">
-        <v>0.09923664122137404</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="S9">
-        <v>0.3587786259541985</v>
+        <v>0.3698630136986301</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1331496786042241</v>
+        <v>0.1315577078288943</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02479338842975207</v>
+        <v>0.0258272800645682</v>
       </c>
       <c r="E10">
-        <v>0.002754820936639119</v>
+        <v>0.002421307506053269</v>
       </c>
       <c r="F10">
-        <v>0.05968778696051423</v>
+        <v>0.05811138014527845</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1092745638200184</v>
+        <v>0.1146085552865214</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01928374655647383</v>
+        <v>0.01937046004842615</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.224058769513315</v>
+        <v>0.2227602905569007</v>
       </c>
       <c r="R10">
-        <v>0.1019283746556474</v>
+        <v>0.09362389023405973</v>
       </c>
       <c r="S10">
-        <v>0.325068870523416</v>
+        <v>0.3317191283292978</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.15625</v>
+        <v>0.1511111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09375</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="K11">
-        <v>0.2135416666666667</v>
+        <v>0.2044444444444445</v>
       </c>
       <c r="L11">
-        <v>0.5208333333333334</v>
+        <v>0.5422222222222223</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.015625</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6796116504854369</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2330097087378641</v>
+        <v>0.2016129032258064</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01941747572815534</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06796116504854369</v>
+        <v>0.0564516129032258</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.72</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01785714285714286</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.130952380952381</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="I15">
-        <v>0.04166666666666666</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="J15">
-        <v>0.4464285714285715</v>
+        <v>0.4352331606217616</v>
       </c>
       <c r="K15">
-        <v>0.06547619047619048</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01785714285714286</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02380952380952381</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2559523809523809</v>
+        <v>0.2642487046632124</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.175531914893617</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
-        <v>0.04787234042553191</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J16">
-        <v>0.425531914893617</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="K16">
-        <v>0.06382978723404255</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01595744680851064</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="N16">
-        <v>0.005319148936170213</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="O16">
-        <v>0.09042553191489362</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1542553191489362</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01336898395721925</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2058823529411765</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.09090909090909091</v>
+        <v>0.08604651162790698</v>
       </c>
       <c r="J17">
-        <v>0.4411764705882353</v>
+        <v>0.4488372093023256</v>
       </c>
       <c r="K17">
-        <v>0.06684491978609626</v>
+        <v>0.07209302325581396</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0160427807486631</v>
+        <v>0.02093023255813953</v>
       </c>
       <c r="N17">
-        <v>0.00267379679144385</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="O17">
-        <v>0.06951871657754011</v>
+        <v>0.06744186046511629</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09358288770053476</v>
+        <v>0.09069767441860466</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02380952380952381</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1607142857142857</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="I18">
-        <v>0.08333333333333333</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="J18">
-        <v>0.4761904761904762</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="K18">
-        <v>0.07142857142857142</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05357142857142857</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1130952380952381</v>
+        <v>0.1073446327683616</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01900739176346357</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2397043294614572</v>
+        <v>0.2387096774193548</v>
       </c>
       <c r="I19">
-        <v>0.07180570221752904</v>
+        <v>0.07004608294930875</v>
       </c>
       <c r="J19">
-        <v>0.4002111932418163</v>
+        <v>0.3852534562211982</v>
       </c>
       <c r="K19">
-        <v>0.08764519535374868</v>
+        <v>0.09493087557603687</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01372756071805702</v>
+        <v>0.01658986175115208</v>
       </c>
       <c r="N19">
-        <v>0.002111932418162619</v>
+        <v>0.00184331797235023</v>
       </c>
       <c r="O19">
-        <v>0.06546990496304118</v>
+        <v>0.06728110599078341</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1003167898627244</v>
+        <v>0.1059907834101382</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Florida A&M_B.xlsx
+++ b/team_specific_matrix/Florida A&M_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2339181286549707</v>
+        <v>0.2359249329758713</v>
       </c>
       <c r="C2">
-        <v>0.5058479532163743</v>
+        <v>0.5013404825737265</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01754385964912281</v>
+        <v>0.02144772117962467</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1549707602339181</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08771929824561403</v>
+        <v>0.08579088471849866</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01136363636363636</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C3">
-        <v>0.005681818181818182</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01704545454545454</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7215909090909091</v>
+        <v>0.7157894736842105</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2443181818181818</v>
+        <v>0.2526315789473684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P4">
         <v>0.6666666666666666</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2592592592592592</v>
+        <v>0.2456140350877193</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06111111111111111</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01666666666666667</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="F6">
-        <v>0.08333333333333333</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2888888888888889</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01111111111111111</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1944444444444444</v>
+        <v>0.1868686868686869</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="S6">
-        <v>0.2888888888888889</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1007194244604317</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07194244604316546</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1726618705035971</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01438848920863309</v>
+        <v>0.02</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1223021582733813</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R7">
-        <v>0.06474820143884892</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="S7">
-        <v>0.4532374100719425</v>
+        <v>0.4266666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1355140186915888</v>
+        <v>0.1312910284463895</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03271028037383177</v>
+        <v>0.03063457330415755</v>
       </c>
       <c r="E8">
-        <v>0.004672897196261682</v>
+        <v>0.00437636761487965</v>
       </c>
       <c r="F8">
-        <v>0.04205607476635514</v>
+        <v>0.04595185995623632</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1378504672897196</v>
+        <v>0.1422319474835886</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02570093457943925</v>
+        <v>0.02844638949671772</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.161214953271028</v>
+        <v>0.1553610503282276</v>
       </c>
       <c r="R8">
-        <v>0.06775700934579439</v>
+        <v>0.07439824945295405</v>
       </c>
       <c r="S8">
-        <v>0.3925233644859813</v>
+        <v>0.387308533916849</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0684931506849315</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0273972602739726</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02054794520547945</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1712328767123288</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2465753424657534</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="R9">
-        <v>0.0958904109589041</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="S9">
-        <v>0.3698630136986301</v>
+        <v>0.3691275167785235</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1315577078288943</v>
+        <v>0.1330882352941176</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0258272800645682</v>
+        <v>0.025</v>
       </c>
       <c r="E10">
-        <v>0.002421307506053269</v>
+        <v>0.002205882352941176</v>
       </c>
       <c r="F10">
-        <v>0.05811138014527845</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1146085552865214</v>
+        <v>0.1154411764705882</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01937046004842615</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2227602905569007</v>
+        <v>0.2161764705882353</v>
       </c>
       <c r="R10">
-        <v>0.09362389023405973</v>
+        <v>0.09117647058823529</v>
       </c>
       <c r="S10">
-        <v>0.3317191283292978</v>
+        <v>0.3345588235294117</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1511111111111111</v>
+        <v>0.1526104417670683</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08888888888888889</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="K11">
-        <v>0.2044444444444445</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L11">
-        <v>0.5422222222222223</v>
+        <v>0.5341365461847389</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01333333333333333</v>
+        <v>0.01606425702811245</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7258064516129032</v>
+        <v>0.7185185185185186</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2016129032258064</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01612903225806452</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0564516129032258</v>
+        <v>0.05925925925925926</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6470588235294118</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2941176470588235</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02072538860103627</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1398963730569948</v>
+        <v>0.1342592592592593</v>
       </c>
       <c r="I15">
-        <v>0.04145077720207254</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="J15">
-        <v>0.4352331606217616</v>
+        <v>0.4398148148148148</v>
       </c>
       <c r="K15">
-        <v>0.05699481865284974</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02072538860103627</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02072538860103627</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2642487046632124</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01904761904761905</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1666666666666667</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="I16">
-        <v>0.05714285714285714</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="J16">
-        <v>0.4476190476190476</v>
+        <v>0.4424778761061947</v>
       </c>
       <c r="K16">
-        <v>0.06190476190476191</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01904761904761905</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="N16">
-        <v>0.004761904761904762</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="O16">
-        <v>0.08095238095238096</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1415929203539823</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01162790697674419</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.2065934065934066</v>
       </c>
       <c r="I17">
-        <v>0.08604651162790698</v>
+        <v>0.08131868131868132</v>
       </c>
       <c r="J17">
-        <v>0.4488372093023256</v>
+        <v>0.4527472527472527</v>
       </c>
       <c r="K17">
-        <v>0.07209302325581396</v>
+        <v>0.06813186813186813</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02093023255813953</v>
+        <v>0.01978021978021978</v>
       </c>
       <c r="N17">
-        <v>0.002325581395348837</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="O17">
-        <v>0.06744186046511629</v>
+        <v>0.06373626373626373</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09069767441860466</v>
+        <v>0.0945054945054945</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02259887005649718</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1581920903954802</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="I18">
-        <v>0.07909604519774012</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="J18">
-        <v>0.4915254237288136</v>
+        <v>0.5077720207253886</v>
       </c>
       <c r="K18">
-        <v>0.06779661016949153</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01694915254237288</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05649717514124294</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1073446327683616</v>
+        <v>0.1036269430051813</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01935483870967742</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2387096774193548</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="I19">
-        <v>0.07004608294930875</v>
+        <v>0.06462585034013606</v>
       </c>
       <c r="J19">
-        <v>0.3852534562211982</v>
+        <v>0.3937074829931973</v>
       </c>
       <c r="K19">
-        <v>0.09493087557603687</v>
+        <v>0.09948979591836735</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01658986175115208</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N19">
-        <v>0.00184331797235023</v>
+        <v>0.001700680272108843</v>
       </c>
       <c r="O19">
-        <v>0.06728110599078341</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1059907834101382</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
   </sheetData>
